--- a/tests/tmpl/templateTest.xlsx
+++ b/tests/tmpl/templateTest.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progetti\Documentor\tmp\tmpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Progetti\Documentor\tests\tmpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13A063DC-ED72-4813-823F-3C3A9D15691F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40D0F1F-DB2C-4556-8948-8E2243BB622F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88CF1F10-D5D6-4CF6-8508-11435F72D003}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88CF1F10-D5D6-4CF6-8508-11435F72D003}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -31,19 +31,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="5">
   <si>
     <t>Testo gia scritto a caso</t>
   </si>
   <si>
     <t>Testo che verra sovrascitto</t>
   </si>
+  <si>
+    <t>&lt;- Testo rosso</t>
+  </si>
+  <si>
+    <t>&lt;- Testo Arancoine</t>
+  </si>
+  <si>
+    <t>&lt;- Intestazione con colore di sfondo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +63,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,10 +108,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -104,61 +128,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>86707</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Immagine 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{577C9E76-EB82-4266-BE84-A35EFC0F3055}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4267201" y="2019301"/>
-          <a:ext cx="3276599" cy="1686906"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,99 +430,112 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
       <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
+      <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+      <c r="B6" s="1"/>
       <c r="H6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+      <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+      <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+      <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="B23" s="1"/>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+      <c r="B24" s="1"/>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+      <c r="B25" s="1"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+      <c r="B26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>